--- a/fms_core/static/submission_templates/Sample_submission_v0.7.xlsx
+++ b/fms_core/static/submission_templates/Sample_submission_v0.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kseni\Documents\fms\fms_core\static\submission_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE07F6-275B-4AE4-935F-2511A326153B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DA8B57-3EA6-4F40-9CBD-AEE00C011256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleSubmission" sheetId="1" r:id="rId1"/>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17555,7 +17555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
